--- a/data-raw/dataFormat/RDBES Data Model CL CE.xlsx
+++ b/data-raw/dataFormat/RDBES Data Model CL CE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rix133\Documents\EMI\ICES\RDBES\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D232E4-E0AF-4095-8620-A5486FAC1191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9019F43A-AFC0-4C28-8F5A-25AA14D578B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10185" windowHeight="4815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10185" windowHeight="4815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commercial Landing CL" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="517">
   <si>
     <t>Type</t>
   </si>
@@ -160,19 +160,10 @@
     <t xml:space="preserve">Basic checks </t>
   </si>
   <si>
-    <t>Data type for scientific effort</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code list </t>
   </si>
   <si>
-    <t>Data source for scientific effort</t>
-  </si>
-  <si>
     <t>Vessel            length category</t>
-  </si>
-  <si>
-    <t>Number of fraction trips</t>
   </si>
   <si>
     <t>0.01-50 000</t>
@@ -436,15 +427,9 @@
     <t>Fixed value CE</t>
   </si>
   <si>
-    <t>CEdataTypeForScientificEffort</t>
-  </si>
-  <si>
     <t>CEdTypSciEff</t>
   </si>
   <si>
-    <t>CEdataSourceForScientificEffort</t>
-  </si>
-  <si>
     <t>CEdSouSciEff</t>
   </si>
   <si>
@@ -488,9 +473,6 @@
   </si>
   <si>
     <t>CEvesLenCat</t>
-  </si>
-  <si>
-    <t>CEnumberOfFractionTrips</t>
   </si>
   <si>
     <t>CEnumberOfDominantTrips</t>
@@ -844,15 +826,6 @@
   </si>
   <si>
     <t>CEsampScheme</t>
-  </si>
-  <si>
-    <t>Total official landings value</t>
-  </si>
-  <si>
-    <t>CLtotalOfficialLandingsValue</t>
-  </si>
-  <si>
-    <t>CLtotOffLanVal</t>
   </si>
   <si>
     <t>CLscientificWeightQualitativeBias</t>
@@ -1386,9 +1359,6 @@
 //vocab.ices.dk/?ref=1725       </t>
   </si>
   <si>
-    <t>Explaining the differences between official weight and scientific weight. Can be "No difference", “Sample data”, “Unallocated catches”, “Area correction”, “Correction for overweight in boxes”.</t>
-  </si>
-  <si>
     <r>
       <t>Exclusive Economic Zone</t>
     </r>
@@ -1446,15 +1416,8 @@
     <t>The error measure value of the scientific weight/landings e.g. Relative Standard Error, then use percentage (%). Or for  90CI or 90PI insert the 95 % quantile. For official data: Do not fill in this field</t>
   </si>
   <si>
-    <t>The error measure value of the landings value e.g. Relative Standard Error, then use percentage (%).
-For official data: Do not fill in this field</t>
-  </si>
-  <si>
     <t>The error measure value of the number fish e.g. Relative Standard Error, then use percentage (%).
 For official data: Do not fill in this field</t>
-  </si>
-  <si>
-    <t>Sales value in Euro of the field official weight 'CLofficialWeight'. If nessesary an estimated value can be reported. Please report the data source in the field 'CLdataSourceOfScientificValue'. If logbook registered discards, put 'NotApplicable', if unknown put 'Unknown'. Exchange rate by month can be found here: http://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=ei_mfrt_m&amp;lang=en</t>
   </si>
   <si>
     <t>JurisdictionArea
@@ -1597,9 +1560,6 @@
     <t>CLmesSizRan</t>
   </si>
   <si>
-    <t>MeshSizeRange</t>
-  </si>
-  <si>
     <t>Mesh size range</t>
   </si>
   <si>
@@ -1621,9 +1581,6 @@
     <t>Supra Region</t>
   </si>
   <si>
-    <t>SupraRegion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supra Region. E.g. 'NAO' for Baltic Sea, North Sea, Eastern Arctic, North of Azores, East Greenland, NAFO, Extended North-Western waters (ICES areas V, VI and VII), Southern Western waters, CECAF areas around Madera and the Canary Islands14 (FAO areas 34.1.1, 34.1.2, 34.2.0). </t>
   </si>
   <si>
@@ -1645,9 +1602,6 @@
     <t>CLspecificConditionsTechnical</t>
   </si>
   <si>
-    <t>SpecificConditionsTechnical</t>
-  </si>
-  <si>
     <t>CEspecificConditionsTechnical</t>
   </si>
   <si>
@@ -1663,9 +1617,6 @@
     <t>Geographical indicator</t>
   </si>
   <si>
-    <t>GeographicalIndicator</t>
-  </si>
-  <si>
     <t>Geographical indicator code to distinguish fishing fleets operating in outermost regions and fleets operating exclusively in non-EU waters (international waters and third countries including those with fishing partner agreements). E.g. 'NGI' for No geographical indicator - EU waters, i.e. EEZ of any EU member state, 'NEU' for Non EU waters - More than 50% of activity occurs in non-EU waters.</t>
   </si>
   <si>
@@ -1684,9 +1635,6 @@
     <t>FDI confidentiality code</t>
   </si>
   <si>
-    <t>FDIconfidentialityCode</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supra Region. E.g. 'NAO' for Baltic Sea, North Sea, Eastern Arctic, North of Azores, East Greenland, NAFO, Extended North-Western waters (ICES areas V, VI and VII), Southern Western waters, CECAF areas around Madera and the Canary Islands14 (FAO areas 34.1.1, 34.1.2, 34.2.0). For EU FDI data.  </t>
   </si>
   <si>
@@ -1738,14 +1686,366 @@
     <t>Fisheries management unit codes can be used for further refine the spatial component. Example, this can be use to individualise catches and samples of e.g. redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline, Nephrops where it cannot be defined by the statistical rectangle.</t>
   </si>
   <si>
-    <t>Ver 1.19.22</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>andings value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>andingsValue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>anVal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sales value in Euro of the field </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scientific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weight 'CL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scientific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weight'. If nessesary an estimated value can be reported. Please report the data source in the field 'CLdataSourceOfScientificValue'. If logbook registered discards, put 'NotApplicable', if unknown put 'Unknown'.</t>
+    </r>
+  </si>
+  <si>
+    <t>The error measure value of the scientific weight/landings e.g. Relative Standard Error, then use percentage (%). Or for 90CI or 90PI insert the 5 % quantile. For official data: Do not fill in this field</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The error measure value of the landing value e.g. Relative Standard Error, then use percentage (%) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">or for 90CI or 90PI insert the 95 % quantile. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>For official data: Do not fill in this field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The error measure value of the landings value e.g. Relative Standard Error, then use percentage (%) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>or for 90CI or 90PI insert the 5 % quantile.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> For official data: Do not fill in this field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explaining the differences between official weight and scientific weight. Can be e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>"NoOfficial", "NoDiffAssumed", "NoDiffKnown", “Sampld”, “Unallocc”, “Area”, "Metier", "Species" "Multiple", “Overwbox”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exclusive Economic Zone indicator. Only relevant for EU countries exporting to FDI. Codes e.g.
+“EU”: EU waters, “RFMO”: International waters, “COAST”: Non-EU coastal waters, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>"UK": UK waters.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> scientific effort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CEdataType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>ScientificEffort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CEdataSource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>ScientificEffort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data source </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> scientific effort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Number of fraction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> trips</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CEnumberOfFraction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trips</t>
+    </r>
+  </si>
+  <si>
+    <t>FDI_SUPRA_REGION
+//vocab.ices.dk/?ref=1749</t>
+  </si>
+  <si>
+    <t>FDI_MESH_SIZE_RANGE
+//vocab.ices.dk/?ref=1748</t>
+  </si>
+  <si>
+    <t>FDI_GEO_INDICATOR
+//vocab.ices.dk/?ref=1750</t>
+  </si>
+  <si>
+    <t>FDI_SPECON_TECH
+//vocab.ices.dk/?ref=1751</t>
+  </si>
+  <si>
+    <t>FDI_CONFIDENTIALITY
+//vocab.ices.dk/?ref=1752</t>
+  </si>
+  <si>
+    <t>Ver 1.19.26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1824,6 +2124,19 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1906,7 +2219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1984,9 +2297,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1995,23 +2305,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2299,9 +2603,9 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2315,20 +2619,20 @@
     <col min="7" max="7" width="6" style="25" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" style="33" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" style="32" customWidth="1"/>
     <col min="11" max="11" width="36.85546875" style="25" customWidth="1"/>
     <col min="12" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>38</v>
@@ -2346,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>36</v>
@@ -2355,19 +2659,19 @@
     </row>
     <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>14</v>
@@ -2376,7 +2680,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L2" s="26"/>
     </row>
@@ -2389,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -2411,7 +2715,7 @@
     </row>
     <row r="4" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="17">
         <v>2</v>
@@ -2420,10 +2724,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>4</v>
@@ -2435,17 +2739,17 @@
         <v>6</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="17">
         <v>3</v>
@@ -2454,10 +2758,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>4</v>
@@ -2469,29 +2773,29 @@
         <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="17">
         <v>4</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>4</v>
@@ -2503,16 +2807,16 @@
         <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
@@ -2521,10 +2825,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>4</v>
@@ -2536,16 +2840,16 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
@@ -2554,10 +2858,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>4</v>
@@ -2569,16 +2873,16 @@
         <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
@@ -2587,10 +2891,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>4</v>
@@ -2602,16 +2906,16 @@
         <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
@@ -2620,10 +2924,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>14</v>
@@ -2635,16 +2939,16 @@
         <v>6</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
@@ -2653,10 +2957,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -2668,16 +2972,16 @@
         <v>6</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
@@ -2686,10 +2990,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>14</v>
@@ -2701,16 +3005,16 @@
         <v>6</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="84" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <v>11</v>
@@ -2719,10 +3023,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>4</v>
@@ -2734,16 +3038,16 @@
         <v>6</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
@@ -2752,10 +3056,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>4</v>
@@ -2767,10 +3071,10 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="L14" s="26"/>
     </row>
@@ -2780,13 +3084,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>4</v>
@@ -2798,63 +3102,63 @@
         <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="12">
+      <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="K16" s="38"/>
+      <c r="C16" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="K16" s="35"/>
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="12">
+        <v>79</v>
+      </c>
+      <c r="B17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>21</v>
@@ -2866,28 +3170,28 @@
         <v>6</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="12">
+        <v>79</v>
+      </c>
+      <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>4</v>
@@ -2899,28 +3203,28 @@
         <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="12">
+        <v>79</v>
+      </c>
+      <c r="B19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>4</v>
@@ -2932,28 +3236,28 @@
         <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="12">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4">
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>4</v>
@@ -2965,28 +3269,28 @@
         <v>6</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="12">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>4</v>
@@ -2998,59 +3302,59 @@
         <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="12">
+      <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>457</v>
+      <c r="C22" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>504</v>
       </c>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="12">
+        <v>79</v>
+      </c>
+      <c r="B23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>14</v>
@@ -3062,26 +3366,26 @@
         <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="12">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4">
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>4</v>
@@ -3093,28 +3397,28 @@
         <v>6</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="12">
+        <v>79</v>
+      </c>
+      <c r="B25" s="4">
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>4</v>
@@ -3126,28 +3430,28 @@
         <v>6</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="12">
+        <v>79</v>
+      </c>
+      <c r="B26" s="4">
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>4</v>
@@ -3159,28 +3463,28 @@
         <v>6</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="12">
+        <v>79</v>
+      </c>
+      <c r="B27" s="4">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>4</v>
@@ -3192,28 +3496,28 @@
         <v>6</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L27" s="26"/>
     </row>
     <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="12">
+        <v>79</v>
+      </c>
+      <c r="B28" s="4">
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>4</v>
@@ -3225,28 +3529,28 @@
         <v>6</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="12">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4">
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>4</v>
@@ -3258,28 +3562,28 @@
         <v>6</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="12">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4">
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>4</v>
@@ -3291,28 +3595,28 @@
         <v>6</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="12">
+        <v>79</v>
+      </c>
+      <c r="B31" s="4">
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>4</v>
@@ -3324,28 +3628,28 @@
         <v>6</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="12">
+        <v>79</v>
+      </c>
+      <c r="B32" s="4">
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>4</v>
@@ -3357,28 +3661,28 @@
         <v>6</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="12">
+        <v>79</v>
+      </c>
+      <c r="B33" s="4">
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>4</v>
@@ -3390,28 +3694,28 @@
         <v>6</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="12">
+        <v>79</v>
+      </c>
+      <c r="B34" s="4">
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>4</v>
@@ -3423,28 +3727,28 @@
         <v>6</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L34" s="26"/>
     </row>
     <row r="35" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="12">
+        <v>79</v>
+      </c>
+      <c r="B35" s="4">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>4</v>
@@ -3456,157 +3760,165 @@
         <v>6</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="26"/>
     </row>
     <row r="36" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="12">
+      <c r="A36" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K36" s="35"/>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:12" ht="72" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="K37" s="35"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="K38" s="35"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="12" t="s">
+      <c r="E39" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="26"/>
-    </row>
-    <row r="37" spans="1:12" ht="72" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="12">
-        <v>35</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="26"/>
-    </row>
-    <row r="38" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="12">
-        <v>36</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="26"/>
-    </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="12">
-        <v>37</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="F39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="K39" s="38"/>
+      <c r="K39" s="35"/>
       <c r="L39" s="26"/>
     </row>
     <row r="40" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="12">
+        <v>79</v>
+      </c>
+      <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="41" t="s">
-        <v>197</v>
+      <c r="C40" s="36" t="s">
+        <v>191</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>202</v>
+        <v>195</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>196</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>4</v>
@@ -3618,86 +3930,86 @@
         <v>6</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" s="12">
+      <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="12" t="s">
+      <c r="C41" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>499</v>
+        <v>515</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="12">
+      <c r="B42" s="4">
         <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>5</v>
+        <v>119</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="12">
+      <c r="B43" s="4">
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>462</v>
+        <v>121</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>5</v>
@@ -3706,23 +4018,23 @@
         <v>29</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="J43" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" s="12">
+      <c r="B44" s="4">
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>4</v>
@@ -3734,25 +4046,25 @@
         <v>6</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
-      <c r="B45" s="12">
+      <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>269</v>
+      <c r="C45" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>4</v>
@@ -3764,23 +4076,23 @@
         <v>32</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="31" t="s">
-        <v>425</v>
+      <c r="J45" s="37" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="12">
+      <c r="B46" s="4">
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>14</v>
@@ -3793,22 +4105,22 @@
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
-      <c r="B47" s="12">
+      <c r="B47" s="4">
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>14</v>
@@ -3821,22 +4133,22 @@
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="12">
+      <c r="B48" s="4">
         <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>4</v>
@@ -3848,253 +4160,253 @@
         <v>6</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="12">
+      <c r="B49" s="4">
         <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>442</v>
+        <v>328</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>421</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="12">
+      <c r="B50" s="4">
         <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>442</v>
+        <v>330</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="12">
+      <c r="B51" s="4">
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="F52" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4">
+        <v>51</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="12">
-        <v>50</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="12">
-        <v>51</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="E53" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>442</v>
+        <v>336</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53" s="4" t="s">
-        <v>423</v>
+      <c r="J53" s="12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="12">
+      <c r="B54" s="4">
         <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="12">
+      <c r="B55" s="4">
         <v>53</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>442</v>
+        <v>345</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
-      <c r="B56" s="12">
+      <c r="B56" s="4">
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>442</v>
+        <v>347</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="12">
+      <c r="B57" s="4">
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>4</v>
@@ -4105,22 +4417,22 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="12">
+      <c r="B58" s="4">
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>4</v>
@@ -4132,69 +4444,69 @@
         <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
-      <c r="B59" s="12">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4">
         <v>57</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="12" t="s">
+      <c r="C59" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="J59" s="37" t="s">
-        <v>510</v>
+      <c r="H59" s="4"/>
+      <c r="I59" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
-      <c r="B60" s="12">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4">
         <v>58</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="12" t="s">
+      <c r="C60" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37" t="s">
-        <v>321</v>
+      <c r="H60" s="4"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>513</v>
+      <c r="A62" s="31" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -4210,10 +4522,10 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A15" sqref="A15:J15"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,13 +4543,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>38</v>
@@ -4255,7 +4567,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>36</v>
@@ -4263,19 +4575,19 @@
     </row>
     <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>14</v>
@@ -4284,12 +4596,12 @@
       <c r="H2" s="17"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -4298,10 +4610,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -4314,24 +4626,24 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>133</v>
+      <c r="C4" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>4</v>
@@ -4340,32 +4652,32 @@
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>135</v>
+      <c r="C5" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>507</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>4</v>
@@ -4377,29 +4689,29 @@
         <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>4</v>
@@ -4411,16 +4723,16 @@
         <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
@@ -4429,10 +4741,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>4</v>
@@ -4444,16 +4756,16 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
@@ -4462,10 +4774,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
@@ -4477,16 +4789,16 @@
         <v>6</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
@@ -4495,10 +4807,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
@@ -4510,16 +4822,16 @@
         <v>6</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
@@ -4528,10 +4840,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>14</v>
@@ -4543,16 +4855,16 @@
         <v>6</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
@@ -4561,10 +4873,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>4</v>
@@ -4576,16 +4888,16 @@
         <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
@@ -4594,10 +4906,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>4</v>
@@ -4609,10 +4921,10 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="L12" s="20"/>
     </row>
@@ -4622,13 +4934,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>4</v>
@@ -4640,63 +4952,63 @@
         <v>6</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" s="13" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="K14" s="38"/>
+      <c r="C14" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="K14" s="35"/>
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="12">
+        <v>79</v>
+      </c>
+      <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>21</v>
@@ -4708,27 +5020,27 @@
         <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="12">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>4</v>
@@ -4740,27 +5052,27 @@
         <v>6</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="12">
+        <v>79</v>
+      </c>
+      <c r="B17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>4</v>
@@ -4772,27 +5084,27 @@
         <v>6</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="12">
+        <v>79</v>
+      </c>
+      <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>4</v>
@@ -4804,27 +5116,27 @@
         <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="12">
+        <v>79</v>
+      </c>
+      <c r="B19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>4</v>
@@ -4836,58 +5148,58 @@
         <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="12">
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>457</v>
+      <c r="C20" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="12">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>4</v>
@@ -4899,28 +5211,28 @@
         <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="12">
+        <v>79</v>
+      </c>
+      <c r="B22" s="4">
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>4</v>
@@ -4932,28 +5244,28 @@
         <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="12">
+        <v>79</v>
+      </c>
+      <c r="B23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>4</v>
@@ -4965,28 +5277,28 @@
         <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="12">
+        <v>79</v>
+      </c>
+      <c r="B24" s="4">
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>4</v>
@@ -4998,28 +5310,28 @@
         <v>6</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="12">
+        <v>79</v>
+      </c>
+      <c r="B25" s="4">
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>4</v>
@@ -5031,29 +5343,29 @@
         <v>6</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="12">
+        <v>79</v>
+      </c>
+      <c r="B26" s="4">
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>4</v>
@@ -5065,147 +5377,155 @@
         <v>6</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="12">
+      <c r="A27" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="12">
-        <v>26</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="12">
-        <v>27</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="12">
-        <v>28</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="F30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>478</v>
+        <v>514</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="12">
+        <v>79</v>
+      </c>
+      <c r="B31" s="4">
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>4</v>
@@ -5217,230 +5537,230 @@
         <v>6</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" s="13" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="12">
+      <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="40" t="s">
-        <v>503</v>
+      <c r="C32" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="8" t="s">
+        <v>486</v>
       </c>
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="107.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="12">
+      <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>151</v>
+      <c r="C33" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>510</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="12">
+      <c r="B34" s="4">
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="12">
+      <c r="B35" s="4">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>5</v>
+        <v>431</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="12">
+      <c r="B36" s="4">
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="12">
+      <c r="B37" s="4">
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>5</v>
+        <v>431</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L37" s="15"/>
     </row>
     <row r="38" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="12">
+      <c r="B38" s="4">
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="8" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="12">
+      <c r="B39" s="4">
         <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>14</v>
@@ -5449,27 +5769,27 @@
         <v>17</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="12">
+      <c r="B40" s="4">
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>14</v>
@@ -5478,252 +5798,252 @@
         <v>17</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="12">
+      <c r="B41" s="4">
         <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="12">
+      <c r="B42" s="4">
         <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="12">
+      <c r="B43" s="4">
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="12">
+      <c r="B44" s="4">
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="12">
+      <c r="B45" s="4">
         <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="12">
+      <c r="B46" s="4">
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="12">
+      <c r="B47" s="4">
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="12">
+      <c r="B48" s="4">
         <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="12">
+      <c r="B49" s="4">
         <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>14</v>
@@ -5732,26 +6052,26 @@
         <v>17</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="12">
+      <c r="B50" s="4">
         <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>14</v>
@@ -5760,26 +6080,26 @@
         <v>17</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="12">
+      <c r="B51" s="4">
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>14</v>
@@ -5788,26 +6108,26 @@
         <v>5</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="8" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="12">
+      <c r="B52" s="4">
         <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>14</v>
@@ -5816,26 +6136,26 @@
         <v>5</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="8" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="12">
+      <c r="B53" s="4">
         <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>14</v>
@@ -5844,26 +6164,26 @@
         <v>17</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="8" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="12">
+      <c r="B54" s="4">
         <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>14</v>
@@ -5876,22 +6196,22 @@
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="12">
+      <c r="B55" s="4">
         <v>53</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>14</v>
@@ -5900,26 +6220,26 @@
         <v>17</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="8" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="12">
+      <c r="B56" s="4">
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>14</v>
@@ -5928,26 +6248,26 @@
         <v>17</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="8" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="12">
+      <c r="B57" s="4">
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>14</v>
@@ -5956,26 +6276,26 @@
         <v>17</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="12">
+      <c r="B58" s="4">
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>4</v>
@@ -5987,81 +6307,81 @@
         <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="12">
+      <c r="B59" s="4">
         <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>442</v>
+        <v>360</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="12">
+      <c r="B60" s="4">
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>442</v>
+        <v>361</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="12">
+      <c r="B61" s="4">
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>4</v>
@@ -6073,64 +6393,64 @@
         <v>6</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="13" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="12">
+      <c r="B62" s="4">
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="12" t="s">
+      <c r="G62" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="J62" s="37" t="s">
-        <v>510</v>
+        <v>310</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="72" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="12">
+      <c r="B63" s="4">
         <v>61</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="12" t="s">
+      <c r="G63" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="6"/>
       <c r="J63" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
